--- a/notebooks/comprasal/directas.xlsx
+++ b/notebooks/comprasal/directas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,17 +411,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Corte de Cuentas de la República (CCR)</t>
+          <t>Bienestar Magisterial</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contratación directa CD-02/2020</t>
+          <t>Contratación directa CD-008/2020-ISBM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIAL E INSTRUMENTAL DE LABORATORIO Y USO MÉDICO PARA LA CORTE DE CUENTAS DE LA REPÚBLICA, PARA TRATAR EL AUMENTO DE CASOS DE INFECCIONES DE VÍAS RESPIRATORIAS Y ANTE LA DECLARATORIA DE EMERGENCIA NACIONAL DEL CORONAVIRUS</t>
+          <t>"ADECUACIÓN DE ESPACIOS FÍSICOS EN EL EX CENTRO DE ATENCIÓN REGIONAL DE OCCIDENTE PARA AISLAMIENTO TEMPORAL PARA PERSONAL DEL ISBM EXPUESTO A PACIENTE SOSPECHOSO DE COVID-19"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9247</v>
+        <v>104282.32</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>29/04/2020</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CD-02/2020</t>
+          <t>CD-008/2020-ISBM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -451,17 +451,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mun. de Santa Ana</t>
+          <t>Hospital Nacional de Jiquilisco, Usulután</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contratación directa CD-04-COVID-19-2020</t>
+          <t>Contratación directa CD-01/2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COMPRA DE CABINAS DE DESINTOXICACIÓN E INSUMOS PARA LA CAMPAÑA DE SANITIZACIÓN EN EL MUNICIPIO DE SANTA ANA DEBIDO A LA EMERGENCIA DEL COVID-19</t>
+          <t>AMPLIACION Y ADECUACION DE AREA PARA AISLADOS DE COVID - 19 EN EL HOSPITAL NACIONAL DE JIQUILISCO.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>45487.02</v>
+        <v>27060</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>28/04/2020</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CD-04-COVID-19-2020</t>
+          <t>CD-01/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -491,17 +491,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Policía Nacional Civil (PNC)</t>
+          <t>Centro Farmacéutico de la Fuerza Armada (CEFAFA)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Contratación directa CD-08/2020-PNC</t>
+          <t>Contratación directa CD 01/2020/MAT-QUIRURGICO/COSAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>¿SUMINISTRO DE MATERIALES Y EQUIPO MÉDICO, PARA ATENDER LA EMERGENCIA POR EL COVID-19¿</t>
+          <t>SUMINISTRO DE MATERIAL MÉDICO QUIRÚRGICO PARA LA ATENCIÓN A PACIENTES CON DIAGNÓSTICO DE COVID ¿ 19, PARA EL COSAM, AÑO 2020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249768.34</v>
+        <v>90789.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>27/04/2020</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CD-08/2020-PNC</t>
+          <t>CD 01/2020/MAT-QUIRURGICO/COSAM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -531,17 +531,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Min. de Trabajo y Previsión Social (MTPS)</t>
+          <t>Mun. de Jicalapa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Contratación directa CD02-2020</t>
+          <t>Contratación directa CD 05/2020-AMJ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONTRATACION DE SERVICIOS JURIDICOS</t>
+          <t>COMPRA DE 2,200 PAQUETES DE VÍVERES DE CANASTA BÁSICA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15600</v>
+        <v>26906</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16/04/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CD02-2020</t>
+          <t>CD 05/2020-AMJ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bienestar Magisterial</t>
+          <t>Corte de Cuentas de la República (CCR)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Contratación directa CD-006/2020-ISBM</t>
+          <t>Contratación directa CD-02/2020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE MEDICAMENTOS PARA LA ATENCIÓN DE USUARIOS ANTE LA EMERGENCIA POR COVID-19</t>
+          <t>ADQUISICIÓN DE MATERIAL E INSTRUMENTAL DE LABORATORIO Y USO MÉDICO PARA LA CORTE DE CUENTAS DE LA REPÚBLICA, PARA TRATAR EL AUMENTO DE CASOS DE INFECCIONES DE VÍAS RESPIRATORIAS Y ANTE LA DECLARATORIA DE EMERGENCIA NACIONAL DEL CORONAVIRUS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>159951.7</v>
+        <v>9247</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CD-006/2020-ISBM</t>
+          <t>CD-02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -611,17 +611,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bienestar Magisterial</t>
+          <t>Banco de Fomento Agropecuario (BFA)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Contratación directa CD-007/2020-ISBM</t>
+          <t>Contratación directa CD 04-2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DIRECTA Nro. 007/2020-ISBM "ADQUISICIÓN DE INSUMOS PARA LA PREVENCIÓN DE LA PANDEMIA COVID-19"</t>
+          <t>SERVICIO DE ASISTENCIA Y SOPORTE TÉCNICO AL ALMACENAMIENTO Y SERVIDOR DE RESPALDO DEL SITIO DE CONTINGENCIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,16 +630,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40250.95</v>
+        <v>9150</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CD-007/2020-ISBM</t>
+          <t>CD 04-2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -651,17 +651,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Banco de Fomento Agropecuario (BFA)</t>
+          <t>Mun. de Santa Ana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Contratación directa CD 02-2020</t>
+          <t>Contratación directa CD-04-COVID-19-2020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RENOVACIÓN DE LICENCIAMIENTO Y SOPORTE DE SPECTRUM PROTECT Y SOPORTE PARA LIBRERÍA IBM TS TRES DOS CERO CERO</t>
+          <t>COMPRA DE CABINAS DE DESINTOXICACIÓN E INSUMOS PARA LA CAMPAÑA DE SANITIZACIÓN EN EL MUNICIPIO DE SANTA ANA DEBIDO A LA EMERGENCIA DEL COVID-19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>90269.12</v>
+        <v>45487.02</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CD 02-2020</t>
+          <t>CD-04-COVID-19-2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -691,17 +691,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mun. de Santa Ana</t>
+          <t>Policía Nacional Civil (PNC)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Contratación directa CD-02-COVID-19-2020</t>
+          <t>Contratación directa CD-08/2020-PNC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DE SERVICIOS DE MANTENIMIENTO CORRECTIVO PARA LAS UNIDADES RECOLECTORAS DE DESECHOS SÓLIDOS QUE PRESTAN EL SERVICIO DEL TREN DE ASEO EN EL MUNICIPIO DE SANTA ANA, EN RELACIÓN CON LA PANDEMIA COVID-19</t>
+          <t>¿SUMINISTRO DE MATERIALES Y EQUIPO MÉDICO, PARA ATENDER LA EMERGENCIA POR EL COVID-19¿</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -710,16 +710,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12000</v>
+        <v>249768.34</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13/04/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CD-02-COVID-19-2020</t>
+          <t>CD-08/2020-PNC</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -731,17 +731,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MINSAL</t>
+          <t>Min. de Trabajo y Previsión Social (MTPS)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Contratación directa CDCU 06-2020 FOPROMID-MINSAL</t>
+          <t>Contratación directa CD02-2020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE SISTEMA DE ILUMINACION TECNOLOGIA LED, FONDO FOPROMID</t>
+          <t>CONTRATACION DE SERVICIOS JURIDICOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>150740.55</v>
+        <v>15600</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>06/04/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CDCU 06-2020 FOPROMID-MINSAL</t>
+          <t>CD02-2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -771,17 +771,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hosp. Cdad. Barrios</t>
+          <t>Bienestar Magisterial</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Contratación directa CD-01/2020</t>
+          <t>Contratación directa CD-006/2020-ISBM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>¿ADQUISICIÓN DE INSUMOS MÉDICOS PARA LA PREVENCIÓN, TRATAMIENTO, CONTENCIÓN Y ATENCIÓN DE LA PANDEMIA POR COVID-19 ANTE DECLARATORIA DE EMERGENCIA NACIONAL¿</t>
+          <t>SUMINISTRO DE MEDICAMENTOS PARA LA ATENCIÓN DE USUARIOS ANTE LA EMERGENCIA POR COVID-19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2574.5</v>
+        <v>159951.7</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>06/04/2020</t>
+          <t>14/04/2020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CD-01/2020</t>
+          <t>CD-006/2020-ISBM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -811,17 +811,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mun. de Santa Ana</t>
+          <t>Bienestar Magisterial</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Contratación directa CD-01-COVID-19-2020</t>
+          <t>Contratación directa CD-007/2020-ISBM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INSUMOS NECESARIOS PARA LA CAMPAÑA DE SANITIZACIÓN EN RELACIÓN A LA PREVENCIÓN, TRATAMIENTO, CONTENCIÓN Y ATENCIÓN DE LA PANDEMIA COVID-19</t>
+          <t>CONTRATACIÓN DIRECTA Nro. 007/2020-ISBM "ADQUISICIÓN DE INSUMOS PARA LA PREVENCIÓN DE LA PANDEMIA COVID-19"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -830,16 +830,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19403.8</v>
+        <v>40250.95</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>06/04/2020</t>
+          <t>14/04/2020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CD-01-COVID-19-2020</t>
+          <t>CD-007/2020-ISBM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -851,17 +851,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Min. Seguridad Pública</t>
+          <t>Banco de Fomento Agropecuario (BFA)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Contratación directa CD-03/2020-MJSP</t>
+          <t>Contratación directa CD 02-2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MASCARILLAS N95 O SU EQUIVALENTE</t>
+          <t>RENOVACIÓN DE LICENCIAMIENTO Y SOPORTE DE SPECTRUM PROTECT Y SOPORTE PARA LIBRERÍA IBM TS TRES DOS CERO CERO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2056.6</v>
+        <v>90269.12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>03/04/2020</t>
+          <t>13/04/2020</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CD-03/2020-MJSP</t>
+          <t>CD 02-2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -891,17 +891,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Min. Seguridad Pública</t>
+          <t>Mun. de Santa Ana</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Contratación directa CD-10/2020-MJSP</t>
+          <t>Contratación directa CD-02-COVID-19-2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MASCARILLAS N95 O SU EQUIVALENTE</t>
+          <t>CONTRATACIÓN CON CALIFICATIVO DE URGENCIA DEL SERVICIO DE MANTENIMIENTO CORRECTIVO PARA LAS UNIDADES RECOLECTORAS DE DESECHOS SÓLIDOS QUE PRESTAN EL SERVICIO DEL TREN DE ASEO EN EL MUNICIPIO DE SANTA ANA, PARA EL MES DE ABRIL 2020</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>205660</v>
+        <v>12000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03/04/2020</t>
+          <t>13/04/2020</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CD-10/2020-MJSP</t>
+          <t>CD-02-COVID-19-2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -931,17 +931,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bienestar Magisterial</t>
+          <t>MINSAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Contratación directa CD-004/2020-ISBM</t>
+          <t>Contratación directa CDCU 06-2020 FOPROMID-MINSAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DIRECTA SUMINISTRO DE INSUMOS DE SEGURIDAD PARA EL PERSONAL DEL ISBM ANTE EMERGENCIA POR COVID-19</t>
+          <t>SUMINISTRO E INSTALACION DE SISTEMA DE ILUMINACION TECNOLOGIA LED, FONDO FOPROMID</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>38120</v>
+        <v>150740.55</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CD-004/2020-ISBM</t>
+          <t>CDCU 06-2020 FOPROMID-MINSAL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -971,17 +971,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Min. Seguridad Pública</t>
+          <t>Hospital Nacional Rosales, San Salvador</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Contratación directa CD-1321-2020-MJSP-DGME</t>
+          <t>Contratación directa CD-01/2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIMPIEZAS ADICIONALES PARA SANITARIOS PORTÁTILES</t>
+          <t>SUMINISTRO DE INSUMOS MEDICOS QUIRURGICOS - 2020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8136</v>
+        <v>107891.98</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CD-1321-2020-MJSP-DGME</t>
+          <t>CD-01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1011,17 +1011,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Min. Seguridad Pública</t>
+          <t>Hosp. Cdad. Barrios</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Contratación directa CD-1322-2020-MJSP-DGME</t>
+          <t>Contratación directa CD-01/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cafeteras de 30 tazas</t>
+          <t>¿ADQUISICIÓN DE INSUMOS MÉDICOS PARA LA PREVENCIÓN, TRATAMIENTO, CONTENCIÓN Y ATENCIÓN DE LA PANDEMIA POR COVID-19 ANTE DECLARATORIA DE EMERGENCIA NACIONAL¿</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>390</v>
+        <v>2574.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>31/03/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CD-1322-2020-MJSP-DGME</t>
+          <t>CD-01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1051,17 +1051,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Min. de Trabajo y Previsión Social (MTPS)</t>
+          <t>Mun. de Santa Ana</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Contratación directa CD 03-2020</t>
+          <t>Contratación directa CD-01-COVID-19-2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adquisición de 150 cajas de mascarillas</t>
+          <t>INSUMOS NECESARIOS PARA LA CAMPAÑA DE SANITIZACIÓN EN RELACIÓN A LA PREVENCIÓN, TRATAMIENTO, CONTENCIÓN Y ATENCIÓN DE LA PANDEMIA COVID-19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8250</v>
+        <v>19403.8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31/03/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CD 03-2020</t>
+          <t>CD-01-COVID-19-2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1091,17 +1091,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Banco de Fomento Agropecuario (BFA)</t>
+          <t>Min. Seguridad Pública</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Contratación directa CD 03-2020</t>
+          <t>Contratación directa CD-03/2020-MJSP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE 100,000 MASCARILLAS PARA OFICINA CENTRAL Y CENTROS DE SERVICIO DEL BFA</t>
+          <t>ADQUISICION DE MASCARILLAS N95 O SU EQUIVALENTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1109,15 +1109,17 @@
           <t>Adjudicada</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>2056.6</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>31/03/2020</t>
+          <t>03/04/2020</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CD 03-2020</t>
+          <t>CD-03/2020-MJSP</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1134,12 +1136,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Contratación directa CD-08/2020-MJSP</t>
+          <t>Contratación directa CD-10/2020-MJSP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MASCARILLAS, GUANTES Y BATAS ESTERILES Y PROTECTORAS PARA PERSONAL QYE SE EBCUENTRA EN CONTACTO CON PERSONAS POTENCIALMENTE CONTAGIADAS POR EL VIRUS COVID-189</t>
+          <t>ADQUISICION DE MASCARILLAS N95 O SU EQUIVALENTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1148,16 +1150,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>62602</v>
+        <v>205660</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>03/04/2020</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CD-08/2020-MJSP</t>
+          <t>CD-10/2020-MJSP</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1174,12 +1176,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Contratación directa CD-1320-2020-MJSP-DGME</t>
+          <t>Contratación directa CD-11/2020-MJSP-DGME</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ARRENDAMIENTO DE BAÑOS PORTÁTILES CON LIMPIEZAS ADICIONALES</t>
+          <t>ARRENDAMIENTO DE 6 SANITARIOS PORTÁTILES CON LIMPIEZAS ADICIONALES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1188,16 +1190,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>78173.39999999999</v>
+        <v>3367.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>03/04/2020</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CD-1320-2020-MJSP-DGME</t>
+          <t>CD-11/2020-MJSP-DGME</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1209,17 +1211,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Min. Defensa</t>
+          <t>Min. de Educación, Ciencia y Tecnología (MINEDUCYT)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Contratación directa CD 02/MDN/2020</t>
+          <t>Contratación directa CD 134/2020 MINEDUCYT-GOES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GAS PROPANO</t>
+          <t>ADQUISICION DE MASCARILLAS, PARA EL MINISTERIO DE EDUCACION, CIENCIA Y TECNOLOGIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>278502.3</v>
+        <v>132000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15/03/2020</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CD 02/MDN/2020</t>
+          <t>CD 134/2020 MINEDUCYT-GOES</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1249,17 +1251,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Min. Seguridad Pública</t>
+          <t>Bienestar Magisterial</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Contratación directa CD-01/2020-MJSP</t>
+          <t>Contratación directa CD-004/2020-ISBM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Contratación Directa No. CD-01/2020-MJSP, denominada ¿Obras para Programa de Infraestructura para Recuperación, Dinamización de Espacios Públicos, Zona Central Fase I, a través del Ministerio de Justicia y Seguridad Publica, Código de Inversión SIIP 6963¿.</t>
+          <t>CONTRATACIÓN DIRECTA SUMINISTRO DE INSUMOS DE SEGURIDAD PARA EL PERSONAL DEL ISBM ANTE EMERGENCIA POR COVID-19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1268,16 +1270,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>425975</v>
+        <v>38120</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13/03/2020</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CD-01/2020-MJSP</t>
+          <t>CD-004/2020-ISBM</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1294,33 +1296,431 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Contratación directa CD-1321-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LIMPIEZAS ADICIONALES PARA SANITARIOS PORTÁTILES</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8136</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CD-1321-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Contratación directa CD-1322-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cafeteras de 30 tazas</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>390</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CD-1322-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Min. de Trabajo y Previsión Social (MTPS)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Contratación directa CD 03-2020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Adquisición de 150 cajas de mascarillas</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8250</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CD 03-2020</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Banco de Fomento Agropecuario (BFA)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Contratación directa CD 03-2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE 100,000 MASCARILLAS PARA OFICINA CENTRAL Y CENTROS DE SERVICIO DEL BFA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CD 03-2020</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Contratación directa CD-08/2020-MJSP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE MASCARILLAS, GUANTES Y BATAS ESTERILES Y PROTECTORAS PARA PERSONAL QYE SE EBCUENTRA EN CONTACTO CON PERSONAS POTENCIALMENTE CONTAGIADAS POR EL VIRUS COVID-189</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>62602</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CD-08/2020-MJSP</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Contratación directa CD-1320-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ARRENDAMIENTO DE BAÑOS PORTÁTILES CON LIMPIEZAS ADICIONALES</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>78173.39999999999</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CD-1320-2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MINSAL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Contratación directa CDCU 07/2020 FOPROMID-MINSAL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE EQUIPO PARA PROCESAMIENTO DE REACCIÓN EN CADENA DE LA POLIMERASA (PCR) PARA EL LABORATORIO NACIONAL DE SALUD PUBLICA¿ con fuente de financiamiento: FONDOS FOPROMID- DONACIÓN.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CDCU 07/2020 FOPROMID-MINSAL</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Contratación directa CD-06/2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE PLATOS DE COMIDA PARA PERSONAS RESGUARDADAS EN LOS CENTROS DE CONTENCIÓN, HABILITADOS ANTE EL ESTADO DE EMERGENCIA POR EL COVID-19, ADMINISTRADOS POR LA DIRECCIÓN GENERAL DE MIGRACIÓN Y EXTRANJERÍA, DEPENDENCIA DEL MINISTERIO DE JUSTICIA Y SEGURIDAD PÚBLICA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>461160</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>17/03/2020</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CD-06/2020-MJSP-DGME</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Min. Defensa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Contratación directa CD 02/MDN/2020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GAS PROPANO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>278502.3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15/03/2020</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CD 02/MDN/2020</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Contratación directa CD-01/2020-MJSP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Contratación Directa No. CD-01/2020-MJSP, denominada ¿Obras para Programa de Infraestructura para Recuperación, Dinamización de Espacios Públicos, Zona Central Fase I, a través del Ministerio de Justicia y Seguridad Publica, Código de Inversión SIIP 6963¿.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>425975</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>13/03/2020</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CD-01/2020-MJSP</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Contratación directa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Min. Seguridad Pública</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Contratación directa CD-02/2020-MJSP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Contratación Directa No. CD-02/2020-MJSP, denominada ¿Obras para Programa de Infraestructura para Recuperación, Dinamización de Espacios Públicos, Zona Occidental Fase I, a través del Ministerio de Justicia y Seguridad Publica, Código de Inversión SIIP 6963¿</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Adjudicada</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Adjudicada</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>459850.87</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>13/03/2020</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>CD-02/2020-MJSP</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Contratación directa</t>
         </is>
